--- a/data/trans_camb/P27A_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P27A_3-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-31,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>249,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -928,7 +1079,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -938,7 +1089,22 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -966,7 +1132,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -976,7 +1142,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1185,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1014,7 +1195,22 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 0,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>154,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>168,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>446,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>585,7%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1211,15 +1467,37 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
